--- a/Data_preparation/datasets/final_data/MICROSOFT_CORP.xlsx
+++ b/Data_preparation/datasets/final_data/MICROSOFT_CORP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>34.91915977733629</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>41.83418655395508</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>42.60825793974698</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>34.50632279855949</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>7433087554</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>333524893038</v>
@@ -891,22 +780,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>38.4875771892215</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>40.42667388916016</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>41.03264181428221</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>37.50071674369165</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>7433087554</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>357154748480</v>
@@ -1007,22 +896,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>38.99406957329596</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>45.86922454833984</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>47.37670438100428</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>38.12269371690945</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>7433087554</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>353510758830</v>
@@ -1135,22 +1024,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>47.65218106813233</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>48.32766342163086</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>48.59083753880731</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>43.07293871278824</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>7433087554</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>443169421673</v>
@@ -1263,22 +1152,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>48.63932551282061</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>44.06254577636719</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>50.1590294259118</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>43.60310032891011</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>7433087554</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>436830792208</v>
@@ -1391,22 +1280,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>45.49178630738633</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>50.42977523803711</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>50.97250977419564</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>44.83338619941309</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>7433087554</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>402220089022</v>
@@ -1507,22 +1396,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>51.39763721796317</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>53.64477157592773</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>54.94291847328731</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>50.42178923748696</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>7433087554</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>448848897005</v>
@@ -1635,22 +1524,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>56.59396941249549</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>58.27042770385742</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>59.40609455077209</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>55.83685932730842</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>7433087554</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>483160280132</v>
@@ -1763,22 +1652,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>59.67555393237211</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>62.07853698730469</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>62.69515142874145</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>58.80504064767749</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>7433087554</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>508935113945</v>
@@ -1891,22 +1780,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>63.22779167347375</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>66.30117034912109</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>67.86978243607513</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>62.03308904936114</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>7433087554</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>532175080408</v>
@@ -2019,22 +1908,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>68.49727068807812</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>76.26292419433594</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>79.03178418727094</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>67.58042861168309</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>7433087554</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>573740153996</v>
@@ -2147,22 +2036,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>79.36418172743693</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>87.546630859375</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>87.95206252468533</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>78.78367298364888</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>7433087554</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>659906045280</v>
@@ -2263,22 +2152,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>83.75485902486797</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>86.57846832275391</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>90.63336703545831</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>81.01456608037077</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>7433087554</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>702760093602</v>
@@ -2391,22 +2280,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>91.21216563133493</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>98.63187408447266</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>103.3458971130981</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>91.11918828652058</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>7433087554</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>757640105771</v>
@@ -2519,22 +2408,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>107.1037212317319</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>99.69279479980467</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>108.4384345567588</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>93.43924704034512</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>7433087554</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>877014014431</v>
@@ -2647,22 +2536,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>93.31797174683828</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>97.89247131347656</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>101.1452434475639</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>91.115080772955</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>7433087554</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>779673537016</v>
@@ -2763,22 +2652,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>111.9796871890666</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>122.947021484375</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>123.6718901779615</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>111.1794974817505</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>7433087554</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>904860853821</v>
@@ -2891,22 +2780,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>129.0997725573902</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>128.7596130371094</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>133.8714350926367</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>127.2477897430132</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>7433087554</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1026511088563</v>
@@ -3019,22 +2908,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>132.402210907896</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>135.9194030761719</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>138.0998805297197</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>126.2968798242927</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>7433087554</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1061550968882</v>
@@ -3147,22 +3036,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>151.040760577142</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>161.9326629638672</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>165.5664758880142</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>148.8814006170601</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>7433087554</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1203062645959</v>
@@ -3275,22 +3164,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>145.9400560609984</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>170.9406433105469</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>172.0757204095209</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>143.4218752837023</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>7433087554</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1199549673947</v>
@@ -3403,22 +3292,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>194.3060821468002</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>196.0947570800781</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>206.970321600913</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>188.9209084019272</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>7433087554</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1543305924667</v>
@@ -3531,22 +3420,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>204.6996530148239</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>194.1333923339844</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>215.9370885925192</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>191.4007339168742</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>7433087554</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>1591704441819</v>
@@ -3659,22 +3548,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>213.9260070850278</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>222.9914093017578</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>233.2584663338894</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>203.7454667352439</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>7433087554</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>1681605513425</v>
@@ -3787,22 +3676,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>229.777716845021</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>242.9879760742188</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>253.596668544704</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>229.3730277023811</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>7433087554</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1778228211386</v>
@@ -3915,22 +3804,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>260.3824460960315</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>275.1588134765625</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>280.2194623726587</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>260.3728083928387</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>7433087554</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>2040303545866</v>
@@ -4043,22 +3932,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>272.9859115038698</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>320.8832702636719</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>321.2509718839253</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>271.1764604532231</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>7433087554</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>2118598140636</v>
@@ -4171,22 +4060,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>325.0862853620566</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>301.462158203125</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>327.6551735575567</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>267.6012031386585</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>7433087554</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>2525083982926</v>
@@ -4299,22 +4188,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>300.5215017665168</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>269.5824584960937</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>306.0973187900976</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>262.2775536012272</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>7433087554</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>2311358888417</v>
@@ -4427,22 +4316,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>249.6368757403655</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>273.3454895019531</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>274.5723114658439</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>239.4621097597596</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>7433087554</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>1920840080062</v>
@@ -4555,22 +4444,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>229.6960056147813</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>226.495620727539</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>244.946615735801</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>213.8111637098241</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>7433087554</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>1736943016989</v>
@@ -4683,22 +4572,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>237.8482622712028</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>242.4764556884766</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>244.4529840016496</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>214.629000279338</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>7433087554</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>1787731749394</v>
@@ -4811,22 +4700,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>281.0554951876676</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>301.3999633789062</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>303.038096464785</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>270.1181533753086</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>7433087554</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>2146048558564</v>
@@ -4939,22 +4828,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>333.4482780270713</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>330.233642578125</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>360.5712377352722</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>321.4646249300586</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>7433087554</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>2532080938790</v>
@@ -5067,22 +4956,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>311.5844666663645</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>333.0903625488281</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>341.0602838616102</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>306.5897293000804</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>7433087554</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>2345947895222</v>
@@ -5195,22 +5084,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>369.0571049559907</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>392.4723815917969</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>409.9845009870256</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>361.7916713905026</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>7433087554</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>2794827926197</v>
@@ -5323,22 +5212,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>419.2775635448957</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>385.0390930175781</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>424.6378116014886</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>383.753432683152</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>7433087554</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>3126133130265</v>
@@ -5451,22 +5340,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>444.5155790150141</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>414.4855651855469</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>464.0236982246781</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>408.4022679352166</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>7433087554</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>3321869074628</v>
@@ -5579,22 +5468,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>425.257410073319</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>403.3220825195313</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>435.2325102211543</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>403.2724369212272</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>7433087554</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>3198436415344</v>
@@ -5707,22 +5596,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>423.2045320573043</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>412.791748046875</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>445.9296658158772</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>408.475469230866</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>7433087554</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>3133802247084</v>
@@ -5835,22 +5724,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>373.3496987636053</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>393.88818359375</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>395.2833185411371</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>343.5933482559051</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>7433087554</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>2790642591197</v>
@@ -5963,22 +5852,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>495.6551665959438</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>532.6243896484375</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>554.5383762548963</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>487.8979301273739</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>7433087554</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>3697021643890</v>
